--- a/做事 Doing/20180111 Stock accout balance.xlsx
+++ b/做事 Doing/20180111 Stock accout balance.xlsx
@@ -124,49 +124,55 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$2</c:f>
+              <c:f>Sheet1!$A$2:$A$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>20180111</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20180112</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$2</c:f>
+              <c:f>Sheet1!$E$2:$E$3</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>-0.19292155555555557</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.19527488888888894</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="213598208"/>
-        <c:axId val="213616512"/>
+        <c:axId val="116503296"/>
+        <c:axId val="116504832"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="213598208"/>
+        <c:axId val="116503296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="213616512"/>
+        <c:crossAx val="116504832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="213616512"/>
+        <c:axId val="116504832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -174,7 +180,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0.00%" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="213598208"/>
+        <c:crossAx val="116503296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -187,7 +193,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -217,23 +223,29 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$2</c:f>
+              <c:f>Sheet1!$A$2:$A$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>20180111</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20180112</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$2</c:f>
+              <c:f>Sheet1!$B$2:$B$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>45000</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>45000</c:v>
                 </c:pt>
               </c:numCache>
@@ -256,49 +268,55 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$2</c:f>
+              <c:f>Sheet1!$A$2:$A$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>20180111</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20180112</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$2</c:f>
+              <c:f>Sheet1!$C$2:$C$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>36318.53</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>36212.629999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="50518656"/>
-        <c:axId val="126243200"/>
+        <c:axId val="118311936"/>
+        <c:axId val="118326016"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="50518656"/>
+        <c:axId val="118311936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="126243200"/>
+        <c:crossAx val="118326016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="126243200"/>
+        <c:axId val="118326016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -306,7 +324,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50518656"/>
+        <c:crossAx val="118311936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -319,7 +337,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -675,10 +693,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -726,6 +744,25 @@
         <v>-0.19292155555555557</v>
       </c>
     </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>20180112</v>
+      </c>
+      <c r="B3">
+        <v>45000</v>
+      </c>
+      <c r="C3">
+        <v>36212.629999999997</v>
+      </c>
+      <c r="D3">
+        <f>C3-B3</f>
+        <v>-8787.3700000000026</v>
+      </c>
+      <c r="E3" s="1">
+        <f>D3/B3</f>
+        <v>-0.19527488888888894</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/做事 Doing/20180111 Stock accout balance.xlsx
+++ b/做事 Doing/20180111 Stock accout balance.xlsx
@@ -109,7 +109,7 @@
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="1"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
@@ -124,55 +124,61 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$3</c:f>
+              <c:f>Sheet1!$A$2:$A$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>20180111</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>20180112</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20180115</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$3</c:f>
+              <c:f>Sheet1!$E$2:$E$4</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>-0.19292155555555557</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>-0.19527488888888894</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.21116155555555549</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="116503296"/>
-        <c:axId val="116504832"/>
+        <c:axId val="115913472"/>
+        <c:axId val="115915008"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="116503296"/>
+        <c:axId val="115913472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="116504832"/>
+        <c:crossAx val="115915008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="116504832"/>
+        <c:axId val="115915008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -180,7 +186,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0.00%" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="116503296"/>
+        <c:crossAx val="115913472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -193,7 +199,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -223,29 +229,35 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$3</c:f>
+              <c:f>Sheet1!$A$2:$A$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>20180111</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>20180112</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20180115</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$3</c:f>
+              <c:f>Sheet1!$B$2:$B$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>45000</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>45000</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>45000</c:v>
                 </c:pt>
               </c:numCache>
@@ -268,55 +280,61 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$3</c:f>
+              <c:f>Sheet1!$A$2:$A$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>20180111</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>20180112</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20180115</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$3</c:f>
+              <c:f>Sheet1!$C$2:$C$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>36318.53</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>36212.629999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35497.730000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="118311936"/>
-        <c:axId val="118326016"/>
+        <c:axId val="116214784"/>
+        <c:axId val="116228864"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="118311936"/>
+        <c:axId val="116214784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="118326016"/>
+        <c:crossAx val="116228864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="118326016"/>
+        <c:axId val="116228864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -324,7 +342,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="118311936"/>
+        <c:crossAx val="116214784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -337,7 +355,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -693,10 +711,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -763,6 +781,25 @@
         <v>-0.19527488888888894</v>
       </c>
     </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>20180115</v>
+      </c>
+      <c r="B4">
+        <v>45000</v>
+      </c>
+      <c r="C4">
+        <v>35497.730000000003</v>
+      </c>
+      <c r="D4">
+        <f>C4-B4</f>
+        <v>-9502.2699999999968</v>
+      </c>
+      <c r="E4" s="1">
+        <f>D4/B4</f>
+        <v>-0.21116155555555549</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/做事 Doing/20180111 Stock accout balance.xlsx
+++ b/做事 Doing/20180111 Stock accout balance.xlsx
@@ -124,10 +124,10 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$4</c:f>
+              <c:f>Sheet1!$A$2:$A$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>20180111</c:v>
                 </c:pt>
@@ -136,16 +136,19 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>20180115</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20180116</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$4</c:f>
+              <c:f>Sheet1!$E$2:$E$5</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>-0.19292155555555557</c:v>
                 </c:pt>
@@ -154,31 +157,34 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>-0.21116155555555549</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.21051266666666665</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="115913472"/>
-        <c:axId val="115915008"/>
+        <c:axId val="117486336"/>
+        <c:axId val="117487872"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="115913472"/>
+        <c:axId val="117486336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="115915008"/>
+        <c:crossAx val="117487872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="115915008"/>
+        <c:axId val="117487872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -186,7 +192,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0.00%" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="115913472"/>
+        <c:crossAx val="117486336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -199,7 +205,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -229,10 +235,10 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$4</c:f>
+              <c:f>Sheet1!$A$2:$A$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>20180111</c:v>
                 </c:pt>
@@ -241,16 +247,19 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>20180115</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20180116</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$4</c:f>
+              <c:f>Sheet1!$B$2:$B$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>45000</c:v>
                 </c:pt>
@@ -258,6 +267,9 @@
                   <c:v>45000</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>45000</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>45000</c:v>
                 </c:pt>
               </c:numCache>
@@ -280,10 +292,10 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$4</c:f>
+              <c:f>Sheet1!$A$2:$A$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>20180111</c:v>
                 </c:pt>
@@ -292,16 +304,19 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>20180115</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20180116</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$4</c:f>
+              <c:f>Sheet1!$C$2:$C$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>36318.53</c:v>
                 </c:pt>
@@ -310,31 +325,34 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>35497.730000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35526.93</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="116214784"/>
-        <c:axId val="116228864"/>
+        <c:axId val="117918720"/>
+        <c:axId val="117932800"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="116214784"/>
+        <c:axId val="117918720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="116228864"/>
+        <c:crossAx val="117932800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="116228864"/>
+        <c:axId val="117932800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -342,7 +360,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="116214784"/>
+        <c:crossAx val="117918720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -355,7 +373,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -711,10 +729,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N22" sqref="N22"/>
+      <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -800,6 +818,25 @@
         <v>-0.21116155555555549</v>
       </c>
     </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>20180116</v>
+      </c>
+      <c r="B5">
+        <v>45000</v>
+      </c>
+      <c r="C5">
+        <v>35526.93</v>
+      </c>
+      <c r="D5">
+        <f>C5-B5</f>
+        <v>-9473.07</v>
+      </c>
+      <c r="E5" s="1">
+        <f>D5/B5</f>
+        <v>-0.21051266666666665</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/做事 Doing/20180111 Stock accout balance.xlsx
+++ b/做事 Doing/20180111 Stock accout balance.xlsx
@@ -124,10 +124,10 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$5</c:f>
+              <c:f>Sheet1!$A$2:$A$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>20180111</c:v>
                 </c:pt>
@@ -139,16 +139,19 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>20180116</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20180117</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$5</c:f>
+              <c:f>Sheet1!$E$2:$E$6</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>-0.19292155555555557</c:v>
                 </c:pt>
@@ -160,31 +163,34 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>-0.21051266666666665</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.20214377777777781</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="117486336"/>
-        <c:axId val="117487872"/>
+        <c:axId val="111915776"/>
+        <c:axId val="111917312"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="117486336"/>
+        <c:axId val="111915776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="117487872"/>
+        <c:crossAx val="111917312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="117487872"/>
+        <c:axId val="111917312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -192,7 +198,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0.00%" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="117486336"/>
+        <c:crossAx val="111915776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -205,7 +211,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -235,10 +241,10 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$5</c:f>
+              <c:f>Sheet1!$A$2:$A$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>20180111</c:v>
                 </c:pt>
@@ -250,16 +256,19 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>20180116</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20180117</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$5</c:f>
+              <c:f>Sheet1!$B$2:$B$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>45000</c:v>
                 </c:pt>
@@ -270,6 +279,9 @@
                   <c:v>45000</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>45000</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>45000</c:v>
                 </c:pt>
               </c:numCache>
@@ -292,10 +304,10 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$5</c:f>
+              <c:f>Sheet1!$A$2:$A$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>20180111</c:v>
                 </c:pt>
@@ -307,16 +319,19 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>20180116</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20180117</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$5</c:f>
+              <c:f>Sheet1!$C$2:$C$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>36318.53</c:v>
                 </c:pt>
@@ -328,31 +343,34 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>35526.93</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>35903.53</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="117918720"/>
-        <c:axId val="117932800"/>
+        <c:axId val="112872448"/>
+        <c:axId val="112886528"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="117918720"/>
+        <c:axId val="112872448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="117932800"/>
+        <c:crossAx val="112886528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="117932800"/>
+        <c:axId val="112886528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -360,7 +378,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="117918720"/>
+        <c:crossAx val="112872448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -373,7 +391,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -384,13 +402,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
+      <xdr:colOff>66674</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>266699</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
@@ -419,8 +437,8 @@
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
@@ -729,10 +747,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N24" sqref="N24"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -835,6 +853,25 @@
       <c r="E5" s="1">
         <f>D5/B5</f>
         <v>-0.21051266666666665</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>20180117</v>
+      </c>
+      <c r="B6">
+        <v>45000</v>
+      </c>
+      <c r="C6">
+        <v>35903.53</v>
+      </c>
+      <c r="D6">
+        <f>C6-B6</f>
+        <v>-9096.4700000000012</v>
+      </c>
+      <c r="E6" s="1">
+        <f>D6/B6</f>
+        <v>-0.20214377777777781</v>
       </c>
     </row>
   </sheetData>

--- a/做事 Doing/20180111 Stock accout balance.xlsx
+++ b/做事 Doing/20180111 Stock accout balance.xlsx
@@ -124,10 +124,10 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$6</c:f>
+              <c:f>Sheet1!$A$2:$A$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>20180111</c:v>
                 </c:pt>
@@ -142,16 +142,19 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>20180117</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20180118</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$6</c:f>
+              <c:f>Sheet1!$E$2:$E$7</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>-0.19292155555555557</c:v>
                 </c:pt>
@@ -166,31 +169,34 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>-0.20214377777777781</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.20143711111111107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="111915776"/>
-        <c:axId val="111917312"/>
+        <c:axId val="108638976"/>
+        <c:axId val="108640512"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="111915776"/>
+        <c:axId val="108638976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="111917312"/>
+        <c:crossAx val="108640512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="111917312"/>
+        <c:axId val="108640512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -198,7 +204,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0.00%" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="111915776"/>
+        <c:crossAx val="108638976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -211,7 +217,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -241,10 +247,10 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$6</c:f>
+              <c:f>Sheet1!$A$2:$A$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>20180111</c:v>
                 </c:pt>
@@ -259,16 +265,19 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>20180117</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20180118</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$6</c:f>
+              <c:f>Sheet1!$B$2:$B$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>45000</c:v>
                 </c:pt>
@@ -282,6 +291,9 @@
                   <c:v>45000</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>45000</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>45000</c:v>
                 </c:pt>
               </c:numCache>
@@ -304,10 +316,10 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$6</c:f>
+              <c:f>Sheet1!$A$2:$A$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>20180111</c:v>
                 </c:pt>
@@ -322,16 +334,19 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>20180117</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20180118</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$6</c:f>
+              <c:f>Sheet1!$C$2:$C$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>36318.53</c:v>
                 </c:pt>
@@ -346,31 +361,34 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>35903.53</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>35935.33</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="112872448"/>
-        <c:axId val="112886528"/>
+        <c:axId val="108874752"/>
+        <c:axId val="108888832"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="112872448"/>
+        <c:axId val="108874752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="112886528"/>
+        <c:crossAx val="108888832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="112886528"/>
+        <c:axId val="108888832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -378,7 +396,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="112872448"/>
+        <c:crossAx val="108874752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -391,7 +409,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -747,10 +765,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -872,6 +890,25 @@
       <c r="E6" s="1">
         <f>D6/B6</f>
         <v>-0.20214377777777781</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>20180118</v>
+      </c>
+      <c r="B7">
+        <v>45000</v>
+      </c>
+      <c r="C7">
+        <v>35935.33</v>
+      </c>
+      <c r="D7">
+        <f>C7-B7</f>
+        <v>-9064.6699999999983</v>
+      </c>
+      <c r="E7" s="1">
+        <f>D7/B7</f>
+        <v>-0.20143711111111107</v>
       </c>
     </row>
   </sheetData>

--- a/做事 Doing/20180111 Stock accout balance.xlsx
+++ b/做事 Doing/20180111 Stock accout balance.xlsx
@@ -124,10 +124,10 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$7</c:f>
+              <c:f>Sheet1!$A$2:$A$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>20180111</c:v>
                 </c:pt>
@@ -145,16 +145,19 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>20180118</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20180119</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$7</c:f>
+              <c:f>Sheet1!$E$2:$E$8</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>-0.19292155555555557</c:v>
                 </c:pt>
@@ -172,31 +175,34 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>-0.20143711111111107</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.19882822222222216</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="108638976"/>
-        <c:axId val="108640512"/>
+        <c:axId val="111129344"/>
+        <c:axId val="111130880"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="108638976"/>
+        <c:axId val="111129344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="108640512"/>
+        <c:crossAx val="111130880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="108640512"/>
+        <c:axId val="111130880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -204,7 +210,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0.00%" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="108638976"/>
+        <c:crossAx val="111129344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -217,7 +223,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -247,10 +253,10 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$7</c:f>
+              <c:f>Sheet1!$A$2:$A$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>20180111</c:v>
                 </c:pt>
@@ -268,16 +274,19 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>20180118</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20180119</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$7</c:f>
+              <c:f>Sheet1!$B$2:$B$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>45000</c:v>
                 </c:pt>
@@ -294,6 +303,9 @@
                   <c:v>45000</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>45000</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>45000</c:v>
                 </c:pt>
               </c:numCache>
@@ -316,10 +328,10 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$7</c:f>
+              <c:f>Sheet1!$A$2:$A$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>20180111</c:v>
                 </c:pt>
@@ -337,16 +349,19 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>20180118</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20180119</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$7</c:f>
+              <c:f>Sheet1!$C$2:$C$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>36318.53</c:v>
                 </c:pt>
@@ -364,31 +379,34 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>35935.33</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>36052.730000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="108874752"/>
-        <c:axId val="108888832"/>
+        <c:axId val="111823872"/>
+        <c:axId val="111837952"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="108874752"/>
+        <c:axId val="111823872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="108888832"/>
+        <c:crossAx val="111837952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="108888832"/>
+        <c:axId val="111837952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -396,7 +414,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="108874752"/>
+        <c:crossAx val="111823872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -409,7 +427,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -765,10 +783,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -808,11 +826,11 @@
         <v>36318.53</v>
       </c>
       <c r="D2">
-        <f>C2-B2</f>
+        <f t="shared" ref="D2:D8" si="0">C2-B2</f>
         <v>-8681.4700000000012</v>
       </c>
       <c r="E2" s="1">
-        <f>D2/B2</f>
+        <f t="shared" ref="E2:E8" si="1">D2/B2</f>
         <v>-0.19292155555555557</v>
       </c>
     </row>
@@ -827,11 +845,11 @@
         <v>36212.629999999997</v>
       </c>
       <c r="D3">
-        <f>C3-B3</f>
+        <f t="shared" si="0"/>
         <v>-8787.3700000000026</v>
       </c>
       <c r="E3" s="1">
-        <f>D3/B3</f>
+        <f t="shared" si="1"/>
         <v>-0.19527488888888894</v>
       </c>
     </row>
@@ -846,11 +864,11 @@
         <v>35497.730000000003</v>
       </c>
       <c r="D4">
-        <f>C4-B4</f>
+        <f t="shared" si="0"/>
         <v>-9502.2699999999968</v>
       </c>
       <c r="E4" s="1">
-        <f>D4/B4</f>
+        <f t="shared" si="1"/>
         <v>-0.21116155555555549</v>
       </c>
     </row>
@@ -865,11 +883,11 @@
         <v>35526.93</v>
       </c>
       <c r="D5">
-        <f>C5-B5</f>
+        <f t="shared" si="0"/>
         <v>-9473.07</v>
       </c>
       <c r="E5" s="1">
-        <f>D5/B5</f>
+        <f t="shared" si="1"/>
         <v>-0.21051266666666665</v>
       </c>
     </row>
@@ -884,11 +902,11 @@
         <v>35903.53</v>
       </c>
       <c r="D6">
-        <f>C6-B6</f>
+        <f t="shared" si="0"/>
         <v>-9096.4700000000012</v>
       </c>
       <c r="E6" s="1">
-        <f>D6/B6</f>
+        <f t="shared" si="1"/>
         <v>-0.20214377777777781</v>
       </c>
     </row>
@@ -903,12 +921,31 @@
         <v>35935.33</v>
       </c>
       <c r="D7">
-        <f>C7-B7</f>
+        <f t="shared" si="0"/>
         <v>-9064.6699999999983</v>
       </c>
       <c r="E7" s="1">
-        <f>D7/B7</f>
+        <f t="shared" si="1"/>
         <v>-0.20143711111111107</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>20180119</v>
+      </c>
+      <c r="B8">
+        <v>45000</v>
+      </c>
+      <c r="C8">
+        <v>36052.730000000003</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>-8947.2699999999968</v>
+      </c>
+      <c r="E8" s="1">
+        <f t="shared" si="1"/>
+        <v>-0.19882822222222216</v>
       </c>
     </row>
   </sheetData>

--- a/做事 Doing/20180111 Stock accout balance.xlsx
+++ b/做事 Doing/20180111 Stock accout balance.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="23715" windowHeight="9630"/>
+    <workbookView xWindow="120" yWindow="90" windowWidth="21840" windowHeight="9630"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -124,10 +124,10 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$8</c:f>
+              <c:f>Sheet1!$A$2:$A$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>20180111</c:v>
                 </c:pt>
@@ -148,16 +148,28 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>20180119</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20180122</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20180123</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20180124</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20180125</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$8</c:f>
+              <c:f>Sheet1!$E$2:$E$12</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>-0.19292155555555557</c:v>
                 </c:pt>
@@ -178,31 +190,43 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>-0.19882822222222216</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.19917711111111114</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.19962822222222215</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.19521933333333338</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.1960571111111111</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="111129344"/>
-        <c:axId val="111130880"/>
+        <c:axId val="78385920"/>
+        <c:axId val="78387456"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="111129344"/>
+        <c:axId val="78385920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="111130880"/>
+        <c:crossAx val="78387456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="111130880"/>
+        <c:axId val="78387456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -210,7 +234,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0.00%" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="111129344"/>
+        <c:crossAx val="78385920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -223,7 +247,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -253,10 +277,10 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$8</c:f>
+              <c:f>Sheet1!$A$2:$A$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>20180111</c:v>
                 </c:pt>
@@ -277,16 +301,28 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>20180119</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20180122</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20180123</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20180124</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20180125</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$8</c:f>
+              <c:f>Sheet1!$B$2:$B$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>45000</c:v>
                 </c:pt>
@@ -306,6 +342,18 @@
                   <c:v>45000</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>45000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45000</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>45000</c:v>
                 </c:pt>
               </c:numCache>
@@ -328,10 +376,10 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$8</c:f>
+              <c:f>Sheet1!$A$2:$A$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>20180111</c:v>
                 </c:pt>
@@ -352,16 +400,28 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>20180119</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20180122</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20180123</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20180124</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20180125</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$8</c:f>
+              <c:f>Sheet1!$C$2:$C$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>36318.53</c:v>
                 </c:pt>
@@ -382,31 +442,43 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>36052.730000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>36037.03</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>36016.730000000003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>36215.129999999997</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>36177.43</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="111823872"/>
-        <c:axId val="111837952"/>
+        <c:axId val="78347264"/>
+        <c:axId val="78435072"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="111823872"/>
+        <c:axId val="78347264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="111837952"/>
+        <c:crossAx val="78435072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="111837952"/>
+        <c:axId val="78435072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -414,7 +486,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="111823872"/>
+        <c:crossAx val="78347264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -427,7 +499,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -783,10 +855,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -826,11 +898,11 @@
         <v>36318.53</v>
       </c>
       <c r="D2">
-        <f t="shared" ref="D2:D8" si="0">C2-B2</f>
+        <f t="shared" ref="D2:D12" si="0">C2-B2</f>
         <v>-8681.4700000000012</v>
       </c>
       <c r="E2" s="1">
-        <f t="shared" ref="E2:E8" si="1">D2/B2</f>
+        <f t="shared" ref="E2:E12" si="1">D2/B2</f>
         <v>-0.19292155555555557</v>
       </c>
     </row>
@@ -946,6 +1018,82 @@
       <c r="E8" s="1">
         <f t="shared" si="1"/>
         <v>-0.19882822222222216</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <v>20180122</v>
+      </c>
+      <c r="B9">
+        <v>45000</v>
+      </c>
+      <c r="C9">
+        <v>36037.03</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>-8962.9700000000012</v>
+      </c>
+      <c r="E9" s="1">
+        <f t="shared" si="1"/>
+        <v>-0.19917711111111114</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10">
+        <v>20180123</v>
+      </c>
+      <c r="B10">
+        <v>45000</v>
+      </c>
+      <c r="C10">
+        <v>36016.730000000003</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>-8983.2699999999968</v>
+      </c>
+      <c r="E10" s="1">
+        <f t="shared" si="1"/>
+        <v>-0.19962822222222215</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11">
+        <v>20180124</v>
+      </c>
+      <c r="B11">
+        <v>45000</v>
+      </c>
+      <c r="C11">
+        <v>36215.129999999997</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>-8784.8700000000026</v>
+      </c>
+      <c r="E11" s="1">
+        <f t="shared" si="1"/>
+        <v>-0.19521933333333338</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12">
+        <v>20180125</v>
+      </c>
+      <c r="B12">
+        <v>45000</v>
+      </c>
+      <c r="C12">
+        <v>36177.43</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>-8822.57</v>
+      </c>
+      <c r="E12" s="1">
+        <f t="shared" si="1"/>
+        <v>-0.1960571111111111</v>
       </c>
     </row>
   </sheetData>

--- a/做事 Doing/20180111 Stock accout balance.xlsx
+++ b/做事 Doing/20180111 Stock accout balance.xlsx
@@ -124,10 +124,10 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$12</c:f>
+              <c:f>Sheet1!$A$2:$A$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>20180111</c:v>
                 </c:pt>
@@ -160,16 +160,19 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>20180125</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>20180126</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$12</c:f>
+              <c:f>Sheet1!$E$2:$E$13</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>-0.19292155555555557</c:v>
                 </c:pt>
@@ -202,31 +205,34 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>-0.1960571111111111</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.19843044444444449</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="78385920"/>
-        <c:axId val="78387456"/>
+        <c:axId val="74715904"/>
+        <c:axId val="74717440"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="78385920"/>
+        <c:axId val="74715904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78387456"/>
+        <c:crossAx val="74717440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="78387456"/>
+        <c:axId val="74717440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -234,7 +240,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0.00%" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78385920"/>
+        <c:crossAx val="74715904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -247,7 +253,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -277,10 +283,10 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$12</c:f>
+              <c:f>Sheet1!$A$2:$A$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>20180111</c:v>
                 </c:pt>
@@ -313,16 +319,19 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>20180125</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>20180126</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$12</c:f>
+              <c:f>Sheet1!$B$2:$B$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>45000</c:v>
                 </c:pt>
@@ -354,6 +363,9 @@
                   <c:v>45000</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>45000</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>45000</c:v>
                 </c:pt>
               </c:numCache>
@@ -376,10 +388,10 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$12</c:f>
+              <c:f>Sheet1!$A$2:$A$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>20180111</c:v>
                 </c:pt>
@@ -412,16 +424,19 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>20180125</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>20180126</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$12</c:f>
+              <c:f>Sheet1!$C$2:$C$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>36318.53</c:v>
                 </c:pt>
@@ -454,31 +469,34 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>36177.43</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>36070.629999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="78347264"/>
-        <c:axId val="78435072"/>
+        <c:axId val="74755072"/>
+        <c:axId val="74773248"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="78347264"/>
+        <c:axId val="74755072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78435072"/>
+        <c:crossAx val="74773248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="78435072"/>
+        <c:axId val="74773248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -486,7 +504,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78347264"/>
+        <c:crossAx val="74755072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -499,7 +517,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -855,10 +873,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -898,11 +916,11 @@
         <v>36318.53</v>
       </c>
       <c r="D2">
-        <f t="shared" ref="D2:D12" si="0">C2-B2</f>
+        <f t="shared" ref="D2:D13" si="0">C2-B2</f>
         <v>-8681.4700000000012</v>
       </c>
       <c r="E2" s="1">
-        <f t="shared" ref="E2:E12" si="1">D2/B2</f>
+        <f t="shared" ref="E2:E13" si="1">D2/B2</f>
         <v>-0.19292155555555557</v>
       </c>
     </row>
@@ -1094,6 +1112,25 @@
       <c r="E12" s="1">
         <f t="shared" si="1"/>
         <v>-0.1960571111111111</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13">
+        <v>20180126</v>
+      </c>
+      <c r="B13">
+        <v>45000</v>
+      </c>
+      <c r="C13">
+        <v>36070.629999999997</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>-8929.3700000000026</v>
+      </c>
+      <c r="E13" s="1">
+        <f t="shared" si="1"/>
+        <v>-0.19843044444444449</v>
       </c>
     </row>
   </sheetData>

--- a/做事 Doing/20180111 Stock accout balance.xlsx
+++ b/做事 Doing/20180111 Stock accout balance.xlsx
@@ -124,10 +124,10 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$13</c:f>
+              <c:f>Sheet1!$A$2:$A$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>20180111</c:v>
                 </c:pt>
@@ -163,16 +163,19 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>20180126</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>20181029</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$13</c:f>
+              <c:f>Sheet1!$E$2:$E$14</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>-0.19292155555555557</c:v>
                 </c:pt>
@@ -208,31 +211,34 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>-0.19843044444444449</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.19751266666666667</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="74715904"/>
-        <c:axId val="74717440"/>
+        <c:axId val="103011072"/>
+        <c:axId val="103012608"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="74715904"/>
+        <c:axId val="103011072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="74717440"/>
+        <c:crossAx val="103012608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="74717440"/>
+        <c:axId val="103012608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -240,7 +246,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0.00%" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="74715904"/>
+        <c:crossAx val="103011072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -253,7 +259,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -283,10 +289,10 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$13</c:f>
+              <c:f>Sheet1!$A$2:$A$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>20180111</c:v>
                 </c:pt>
@@ -322,16 +328,19 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>20180126</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>20181029</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$13</c:f>
+              <c:f>Sheet1!$B$2:$B$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>45000</c:v>
                 </c:pt>
@@ -366,6 +375,9 @@
                   <c:v>45000</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>45000</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>45000</c:v>
                 </c:pt>
               </c:numCache>
@@ -388,10 +400,10 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$13</c:f>
+              <c:f>Sheet1!$A$2:$A$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>20180111</c:v>
                 </c:pt>
@@ -427,16 +439,19 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>20180126</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>20181029</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$13</c:f>
+              <c:f>Sheet1!$C$2:$C$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>36318.53</c:v>
                 </c:pt>
@@ -472,31 +487,34 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>36070.629999999997</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>36111.93</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="74755072"/>
-        <c:axId val="74773248"/>
+        <c:axId val="113400832"/>
+        <c:axId val="113414912"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="74755072"/>
+        <c:axId val="113400832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="74773248"/>
+        <c:crossAx val="113414912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="74773248"/>
+        <c:axId val="113414912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -504,7 +522,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="74755072"/>
+        <c:crossAx val="113400832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -517,7 +535,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -873,10 +891,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -916,11 +934,11 @@
         <v>36318.53</v>
       </c>
       <c r="D2">
-        <f t="shared" ref="D2:D13" si="0">C2-B2</f>
+        <f t="shared" ref="D2:D14" si="0">C2-B2</f>
         <v>-8681.4700000000012</v>
       </c>
       <c r="E2" s="1">
-        <f t="shared" ref="E2:E13" si="1">D2/B2</f>
+        <f t="shared" ref="E2:E14" si="1">D2/B2</f>
         <v>-0.19292155555555557</v>
       </c>
     </row>
@@ -1131,6 +1149,25 @@
       <c r="E13" s="1">
         <f t="shared" si="1"/>
         <v>-0.19843044444444449</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14">
+        <v>20181029</v>
+      </c>
+      <c r="B14">
+        <v>45000</v>
+      </c>
+      <c r="C14">
+        <v>36111.93</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>-8888.07</v>
+      </c>
+      <c r="E14" s="1">
+        <f t="shared" si="1"/>
+        <v>-0.19751266666666667</v>
       </c>
     </row>
   </sheetData>
